--- a/backend/bulk_graduates_seed.xlsx
+++ b/backend/bulk_graduates_seed.xlsx
@@ -498,12 +498,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>G184358</t>
+          <t>G197155</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tatenda</t>
+          <t>Rudo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>72-796917X16</t>
+          <t>37-993058X75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -523,21 +523,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Faculty of Engineering</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Civil Engineering</t>
+          <t>Accounting</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>BEng Civil</t>
+          <t>BAcc</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -556,42 +556,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>G206807</t>
+          <t>G205846</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tinashe</t>
+          <t>Precious</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Gumbo</t>
+          <t>Ndlovu</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>75-279081X12</t>
+          <t>56-934251X34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Faculty of Engineering</t>
+          <t>Faculty of Science</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Electrical</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>BEng Electrical</t>
+          <t>BSc Software Eng</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -614,27 +614,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>G207241</t>
+          <t>G192902</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tafadzwa</t>
+          <t>Tendai</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Phiri</t>
+          <t>Mutasa</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>58-721459X80</t>
+          <t>87-957789X19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -661,38 +661,38 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Distinction</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>G192240</t>
+          <t>G212356</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Precious</t>
+          <t>Tinashe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ndlovu</t>
+          <t>Gumbo</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>60-443687X46</t>
+          <t>13-777125X16</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -707,11 +707,11 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Diploma Civil</t>
+          <t>BEng Civil</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -719,57 +719,57 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Distinction</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>G203352</t>
+          <t>G187703</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Kudzai</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mutasa</t>
+          <t>Moyo</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12-988260X16</t>
+          <t>30-842075X84</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Physics</t>
+          <t>Civil Engineering</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>BSc Applied Physics</t>
+          <t>BEng Civil</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -777,33 +777,33 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Distinction</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>G217799</t>
+          <t>G205014</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tatenda</t>
+          <t>Tendai</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Dube</t>
+          <t>Phiri</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>30-224215X64</t>
+          <t>65-821022X40</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -813,21 +813,21 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Physics</t>
+          <t>Civil Engineering</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>BSc Applied Physics</t>
+          <t>BEng Civil</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -835,33 +835,33 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Distinction</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>G199348</t>
+          <t>G211242</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Blessing</t>
+          <t>Precious</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Banda</t>
+          <t>Mutasa</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>26-676167X85</t>
+          <t>11-157845X76</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -871,21 +871,21 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Faculty of Engineering</t>
+          <t>Faculty of Science</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Civil Engineering</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>BEng Civil</t>
+          <t>BSCS</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -893,57 +893,57 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Distinction</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>G211979</t>
+          <t>G205310</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tatenda</t>
+          <t>Rudo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ndlovu</t>
+          <t>Mutasa</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25-111150X69</t>
+          <t>87-647244X59</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Faculty of Engineering</t>
+          <t>Faculty of Science</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Electrical</t>
+          <t>Physics</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>HND Electrical</t>
+          <t>BSc Applied Physics</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -951,33 +951,33 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Distinction</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>G198616</t>
+          <t>G196064</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kudzai</t>
+          <t>Tendai</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Phiri</t>
+          <t>Banda</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>14-893705X22</t>
+          <t>50-518354X63</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -992,12 +992,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Accounting</t>
+          <t>Business Management</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>BAcc</t>
+          <t>BBA</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1020,46 +1020,46 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>G205534</t>
+          <t>G211399</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tinashe</t>
+          <t>Tatenda</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Gumbo</t>
+          <t>Dube</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>32-398692X45</t>
+          <t>86-139634X93</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Faculty of Commerce</t>
+          <t>Faculty of Science</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Accounting</t>
+          <t>Physics</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>BAcc</t>
+          <t>BSc Applied Physics</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1067,33 +1067,33 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Credit</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>G202523</t>
+          <t>G196859</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Farai</t>
+          <t>Kudzai</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Shumba</t>
+          <t>Ncube</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>37-113988X49</t>
+          <t>82-921869X23</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1108,16 +1108,16 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Civil Engineering</t>
+          <t>Electrical</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Diploma Civil</t>
+          <t>HND Electrical</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>G186597</t>
+          <t>G187895</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1146,12 +1146,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mutasa</t>
+          <t>Phiri</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>76-362334X27</t>
+          <t>34-766341X36</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1194,7 +1194,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>G195942</t>
+          <t>G201635</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1204,36 +1204,36 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Moyo</t>
+          <t>Phiri</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>19-263560X64</t>
+          <t>70-651717X92</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Faculty of Engineering</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Electrical</t>
+          <t>Accounting</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>HND Electrical</t>
+          <t>BCom Accounting</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1252,22 +1252,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>G217479</t>
+          <t>G208610</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Blessing</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Moyo</t>
+          <t>Dube</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>89-340210X94</t>
+          <t>54-855349X33</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1277,21 +1277,21 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Physics</t>
+          <t>Accounting</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>BSc Applied Physics</t>
+          <t>BCom Accounting</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1299,23 +1299,23 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Distinction</t>
+          <t>Credit</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>G207349</t>
+          <t>G202081</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Kudzai</t>
+          <t>Tinashe</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>50-641612X26</t>
+          <t>98-346953X95</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1335,17 +1335,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Faculty of Commerce</t>
+          <t>Faculty of Science</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Business Management</t>
+          <t>Physics</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>BCom Business Mgt</t>
+          <t>BSc Physics</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>G211510</t>
+          <t>G216355</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1378,17 +1378,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Ndlovu</t>
+          <t>Ncube</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>38-718755X55</t>
+          <t>78-958357X17</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1419,34 +1419,34 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>G183575</t>
+          <t>G186251</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Rudo</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ncube</t>
+          <t>Moyo</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>67-973073X56</t>
+          <t>62-289730X38</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Physics</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>BSc Applied Physics</t>
+          <t>BSc Software Eng</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1477,49 +1477,49 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Credit</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>G193396</t>
+          <t>G192489</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Nyasha</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sibanda</t>
+          <t>Ndlovu</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>13-628195X62</t>
+          <t>16-997757X63</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Physics</t>
+          <t>Electrical</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>BSc Applied Physics</t>
+          <t>BEng Electrical</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1531,23 +1531,23 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Distinction</t>
+          <t>Credit</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>G207574</t>
+          <t>G218116</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Rudo</t>
+          <t>Tinashe</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1557,12 +1557,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>72-126294X55</t>
+          <t>40-956206X38</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1593,53 +1593,53 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Distinction</t>
+          <t>Credit</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>G207282</t>
+          <t>G199966</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Rudo</t>
+          <t>Tatenda</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Gumbo</t>
+          <t>Sibanda</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>19-832361X17</t>
+          <t>49-948721X87</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Faculty of Engineering</t>
+          <t>Faculty of Science</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Electrical</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>HND Electrical</t>
+          <t>BSc Software Eng</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1647,57 +1647,57 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Credit</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>G194948</t>
+          <t>G188401</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tafadzwa</t>
+          <t>Precious</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Moyo</t>
+          <t>Gumbo</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>50-666461X42</t>
+          <t>90-354131X11</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Faculty of Engineering</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Electrical</t>
+          <t>Business Management</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>BEng Electrical</t>
+          <t>BCom Business Mgt</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1705,18 +1705,18 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Distinction</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>G202684</t>
+          <t>G207115</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1726,17 +1726,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Ndlovu</t>
+          <t>Phiri</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>22-232117X20</t>
+          <t>26-278005X12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1746,12 +1746,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Physics</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>BIT</t>
+          <t>BSc Applied Physics</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1767,29 +1767,29 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>G201304</t>
+          <t>G184062</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Precious</t>
+          <t>Tinashe</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Moyo</t>
+          <t>Ndlovu</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>64-751708X55</t>
+          <t>92-619077X80</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1799,21 +1799,21 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Accounting</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>BSc Software Eng</t>
+          <t>BCom Accounting</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1832,42 +1832,42 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>G206125</t>
+          <t>G207925</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Kudzai</t>
+          <t>Tinashe</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ncube</t>
+          <t>Sibanda</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>18-542233X53</t>
+          <t>82-752909X16</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Physics</t>
+          <t>Civil Engineering</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>BSc Applied Physics</t>
+          <t>Diploma Civil</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>G206138</t>
+          <t>G199655</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1900,12 +1900,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ndlovu</t>
+          <t>Mutasa</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>81-101262X95</t>
+          <t>89-302012X86</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1920,16 +1920,16 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Physics</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>BSc Applied Physics</t>
+          <t>BSc Software Eng</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1937,33 +1937,33 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Credit</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>G212026</t>
+          <t>G198348</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Nyasha</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Ndlovu</t>
+          <t>Shumba</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>47-974620X97</t>
+          <t>48-429743X39</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1973,21 +1973,21 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Physics</t>
+          <t>Electrical</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>BSc Physics</t>
+          <t>BEng Electrical</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1995,53 +1995,53 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Distinction</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>G214028</t>
+          <t>G217362</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Blessing</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Dube</t>
+          <t>Phiri</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>85-505937X39</t>
+          <t>65-556399X16</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Faculty of Engineering</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Civil Engineering</t>
+          <t>Accounting</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>BEng Civil</t>
+          <t>BAcc</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2057,53 +2057,53 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Credit</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>G205358</t>
+          <t>G186543</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Nyasha</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Sibanda</t>
+          <t>Ncube</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>59-902929X70</t>
+          <t>39-228299X96</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Business Management</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>BSCS</t>
+          <t>BCom Business Mgt</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2111,33 +2111,33 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>G199013</t>
+          <t>G199227</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Precious</t>
+          <t>Tinashe</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Gumbo</t>
+          <t>Ndlovu</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>18-617069X63</t>
+          <t>47-977388X74</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2147,17 +2147,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Faculty of Commerce</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Accounting</t>
+          <t>Civil Engineering</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>BAcc</t>
+          <t>BEng Civil</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2169,18 +2169,18 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>G197632</t>
+          <t>G191626</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2190,17 +2190,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Phiri</t>
+          <t>Shumba</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>80-826656X98</t>
+          <t>55-554740X77</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -2238,27 +2238,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>G195591</t>
+          <t>G196335</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Farai</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Gumbo</t>
+          <t>Ndlovu</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>89-619653X15</t>
+          <t>60-316026X12</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>BAcc</t>
+          <t>BCom Accounting</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2285,7 +2285,7 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -2296,27 +2296,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>G208847</t>
+          <t>G204379</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Blessing</t>
+          <t>Farai</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Moyo</t>
+          <t>Ncube</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>31-944594X10</t>
+          <t>97-910857X17</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Diploma Civil</t>
+          <t>BEng Civil</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -2354,12 +2354,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>G214604</t>
+          <t>G181243</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Precious</t>
+          <t>Kudzai</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2369,31 +2369,31 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>88-437593X21</t>
+          <t>68-509131X64</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Physics</t>
+          <t>Accounting</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>BSc Applied Physics</t>
+          <t>BAcc</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2401,33 +2401,33 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Credit</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>G208828</t>
+          <t>G194279</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Blessing</t>
+          <t>Farai</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Shumba</t>
+          <t>Moyo</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>55-439805X96</t>
+          <t>76-926198X97</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2437,21 +2437,21 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Accounting</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>BSc Software Eng</t>
+          <t>BAcc</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2459,57 +2459,57 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Credit</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>G187323</t>
+          <t>G218106</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Tinashe</t>
+          <t>Tatenda</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ncube</t>
+          <t>Phiri</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>64-303949X63</t>
+          <t>86-614994X69</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Faculty of Engineering</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Electrical</t>
+          <t>Business Management</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>BEng Electrical</t>
+          <t>BCom Business Mgt</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2517,53 +2517,53 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>G181602</t>
+          <t>G182048</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Blessing</t>
+          <t>Kudzai</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mutasa</t>
+          <t>Ndlovu</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>42-234551X86</t>
+          <t>14-704660X80</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Faculty of Engineering</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Electrical</t>
+          <t>Business Management</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>BEng Electrical</t>
+          <t>BCom Business Mgt</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -2579,19 +2579,19 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Distinction</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>G198378</t>
+          <t>G209919</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Tinashe</t>
+          <t>Tendai</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>40-169223X37</t>
+          <t>52-220033X39</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2611,21 +2611,21 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Accounting</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>BIT</t>
+          <t>BCom Accounting</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2644,27 +2644,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>G195289</t>
+          <t>G189302</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Tinashe</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Moyo</t>
+          <t>Phiri</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>59-148898X80</t>
+          <t>79-306028X49</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2679,11 +2679,11 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>BAcc</t>
+          <t>BCom Accounting</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2702,27 +2702,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>G209644</t>
+          <t>G204483</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Nyasha</t>
+          <t>Rudo</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Sibanda</t>
+          <t>Dube</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>44-529461X49</t>
+          <t>76-869539X51</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>BSCS</t>
+          <t>BIT</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -2749,33 +2749,33 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>G207137</t>
+          <t>G198186</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Rudo</t>
+          <t>Kudzai</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mutasa</t>
+          <t>Sibanda</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>92-354509X65</t>
+          <t>12-220065X63</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2785,21 +2785,21 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Accounting</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>BSCS</t>
+          <t>BCom Accounting</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2807,33 +2807,33 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Distinction</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>G207337</t>
+          <t>G206701</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Rudo</t>
+          <t>Tatenda</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Dube</t>
+          <t>Sibanda</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>10-740944X47</t>
+          <t>64-580156X74</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2869,19 +2869,19 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>G194907</t>
+          <t>G197313</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Tendai</t>
+          <t>Rudo</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2891,27 +2891,27 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>86-108230X51</t>
+          <t>22-337709X52</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Faculty of Commerce</t>
+          <t>Faculty of Science</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Business Management</t>
+          <t>Physics</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>BCom Business Mgt</t>
+          <t>BSc Applied Physics</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -2927,29 +2927,29 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>G198512</t>
+          <t>G192789</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Tinashe</t>
+          <t>Blessing</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Gumbo</t>
+          <t>Mutasa</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>64-194971X92</t>
+          <t>40-818184X12</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2959,17 +2959,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Faculty of Commerce</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Business Management</t>
+          <t>Civil Engineering</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>BBA</t>
+          <t>Diploma Civil</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -2992,22 +2992,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>G212224</t>
+          <t>G186831</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Rudo</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Ndlovu</t>
+          <t>Gumbo</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>35-496807X53</t>
+          <t>75-140105X37</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3027,11 +3027,11 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>BSc Applied Physics</t>
+          <t>BSc Physics</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3039,23 +3039,23 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Distinction</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>G191348</t>
+          <t>G187342</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Blessing</t>
+          <t>Rudo</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3065,31 +3065,31 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>63-225865X67</t>
+          <t>86-119988X66</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Faculty of Commerce</t>
+          <t>Faculty of Science</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Business Management</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>BBA</t>
+          <t>BSCS</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3101,34 +3101,34 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Credit</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>G182701</t>
+          <t>G201905</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Nyasha</t>
+          <t>Kudzai</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Sibanda</t>
+          <t>Phiri</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>23-773488X84</t>
+          <t>72-303743X39</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3138,16 +3138,16 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Civil Engineering</t>
+          <t>Electrical</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>BEng Civil</t>
+          <t>HND Electrical</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3155,33 +3155,33 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Credit</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>G202045</t>
+          <t>G183164</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Kudzai</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Sibanda</t>
+          <t>Ndlovu</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>84-331550X93</t>
+          <t>64-486782X31</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3191,21 +3191,21 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Faculty of Engineering</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Civil Engineering</t>
+          <t>Business Management</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>BEng Civil</t>
+          <t>BBA</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -3224,22 +3224,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>G208177</t>
+          <t>G196486</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Nyasha</t>
+          <t>Tatenda</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Mutasa</t>
+          <t>Ndlovu</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>72-713190X24</t>
+          <t>14-191987X41</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3254,16 +3254,16 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Electrical</t>
+          <t>Civil Engineering</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>BEng Electrical</t>
+          <t>Diploma Civil</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -3282,46 +3282,46 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>G217839</t>
+          <t>G198015</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Rudo</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Ncube</t>
+          <t>Gumbo</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>80-130290X68</t>
+          <t>73-849339X93</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Faculty of Engineering</t>
+          <t>Faculty of Science</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Electrical</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>BEng Electrical</t>
+          <t>BSCS</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -3329,57 +3329,57 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Credit</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>G193650</t>
+          <t>G209136</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tafadzwa</t>
+          <t>Tinashe</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Sibanda</t>
+          <t>Banda</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>14-249912X94</t>
+          <t>88-551797X84</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Civil Engineering</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>BIT</t>
+          <t>BEng Civil</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -3398,22 +3398,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>G203846</t>
+          <t>G187686</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Tendai</t>
+          <t>Tafadzwa</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Sibanda</t>
+          <t>Banda</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>74-214536X18</t>
+          <t>46-809932X77</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3433,11 +3433,11 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>BSc Applied Physics</t>
+          <t>BSc Physics</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -3445,33 +3445,33 @@
         </is>
       </c>
       <c r="K52" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>G191743</t>
+          <t>G185394</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Farai</t>
+          <t>Rudo</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Banda</t>
+          <t>Dube</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>31-548515X13</t>
+          <t>36-406158X76</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3491,11 +3491,11 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>BBA</t>
+          <t>BCom Business Mgt</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -3503,33 +3503,33 @@
         </is>
       </c>
       <c r="K53" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Distinction</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>G188274</t>
+          <t>G185245</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Tatenda</t>
+          <t>Precious</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Banda</t>
+          <t>Gumbo</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>61-359109X67</t>
+          <t>77-960659X42</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3539,17 +3539,17 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Faculty of Engineering</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Electrical</t>
+          <t>Accounting</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>BEng Electrical</t>
+          <t>BAcc</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -3565,29 +3565,29 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Distinction</t>
+          <t>Credit</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>G202988</t>
+          <t>G193988</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Precious</t>
+          <t>Kudzai</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Phiri</t>
+          <t>Dube</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>39-321765X89</t>
+          <t>43-875439X57</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3597,21 +3597,21 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Accounting</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>BIT</t>
+          <t>BAcc</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -3623,29 +3623,29 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Credit</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>G211836</t>
+          <t>G218110</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Nyasha</t>
+          <t>Rudo</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Moyo</t>
+          <t>Sibanda</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>81-868352X75</t>
+          <t>44-449244X91</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3688,27 +3688,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>G202921</t>
+          <t>G181752</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Rudo</t>
+          <t>Tendai</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Banda</t>
+          <t>Ncube</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>17-218184X96</t>
+          <t>87-862817X12</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3718,16 +3718,16 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Physics</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>BSc Applied Physics</t>
+          <t>BSc Software Eng</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         </is>
       </c>
       <c r="K57" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -3746,22 +3746,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>G217885</t>
+          <t>G196324</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Tendai</t>
+          <t>Tatenda</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Shumba</t>
+          <t>Banda</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>96-274075X43</t>
+          <t>23-219942X76</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3781,11 +3781,11 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>BSCS</t>
+          <t>BIT</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         </is>
       </c>
       <c r="K58" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -3804,27 +3804,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>G204294</t>
+          <t>G198752</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Farai</t>
+          <t>Blessing</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Banda</t>
+          <t>Dube</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>51-580894X29</t>
+          <t>80-608380X60</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3834,16 +3834,16 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Electrical</t>
+          <t>Civil Engineering</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>HND Electrical</t>
+          <t>BEng Civil</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         </is>
       </c>
       <c r="K59" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -3862,22 +3862,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>G207166</t>
+          <t>G194730</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Tinashe</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Ndlovu</t>
+          <t>Mutasa</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>94-637003X73</t>
+          <t>45-817848X53</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3887,21 +3887,21 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Faculty of Engineering</t>
+          <t>Faculty of Science</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Electrical</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>BEng Electrical</t>
+          <t>BSc Software Eng</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -3909,23 +3909,23 @@
         </is>
       </c>
       <c r="K60" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>G209410</t>
+          <t>G202602</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Tendai</t>
+          <t>Precious</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3935,27 +3935,27 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>66-719682X87</t>
+          <t>67-346203X88</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Faculty of Engineering</t>
+          <t>Faculty of Science</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Civil Engineering</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>BEng Civil</t>
+          <t>BSc Software Eng</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -3967,33 +3967,33 @@
         </is>
       </c>
       <c r="K61" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>G208137</t>
+          <t>G203409</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Rudo</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Ndlovu</t>
+          <t>Banda</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>40-909741X83</t>
+          <t>75-184352X67</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4003,17 +4003,17 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Physics</t>
+          <t>Accounting</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>BSc Physics</t>
+          <t>BCom Accounting</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -4025,7 +4025,7 @@
         </is>
       </c>
       <c r="K62" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -4036,7 +4036,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>G211731</t>
+          <t>G194597</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4046,36 +4046,36 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Mutasa</t>
+          <t>Ncube</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>15-278642X72</t>
+          <t>34-251756X50</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Business Management</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>BSc Software Eng</t>
+          <t>BCom Business Mgt</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         </is>
       </c>
       <c r="K63" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -4094,12 +4094,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>G182105</t>
+          <t>G195594</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Nyasha</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4109,12 +4109,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>19-935510X63</t>
+          <t>86-829502X62</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4124,16 +4124,16 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Business Management</t>
+          <t>Accounting</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>BCom Business Mgt</t>
+          <t>BAcc</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -4141,33 +4141,33 @@
         </is>
       </c>
       <c r="K64" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Credit</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>G207591</t>
+          <t>G206979</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Kudzai</t>
+          <t>Tendai</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Moyo</t>
+          <t>Mutasa</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>86-310617X99</t>
+          <t>53-857681X55</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4177,17 +4177,17 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Faculty of Commerce</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Accounting</t>
+          <t>Electrical</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>BAcc</t>
+          <t>BEng Electrical</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -4210,12 +4210,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>G191627</t>
+          <t>G198112</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Tendai</t>
+          <t>Precious</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4225,7 +4225,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>63-667159X67</t>
+          <t>63-569434X45</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4235,17 +4235,17 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Accounting</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>BSCS</t>
+          <t>BCom Accounting</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -4257,7 +4257,7 @@
         </is>
       </c>
       <c r="K66" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -4268,22 +4268,22 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>G206256</t>
+          <t>G215473</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Tendai</t>
+          <t>Tinashe</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Moyo</t>
+          <t>Banda</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>81-407190X97</t>
+          <t>10-763970X61</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -4293,21 +4293,21 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Physics</t>
+          <t>Civil Engineering</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>BSc Physics</t>
+          <t>BEng Civil</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -4319,34 +4319,34 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Distinction</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>G201811</t>
+          <t>G191374</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Kudzai</t>
+          <t>Blessing</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Dube</t>
+          <t>Moyo</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>36-377691X94</t>
+          <t>20-818413X55</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -4356,16 +4356,16 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Accounting</t>
+          <t>Business Management</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>BCom Accounting</t>
+          <t>BBA</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -4377,34 +4377,34 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>G212451</t>
+          <t>G195119</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Blessing</t>
+          <t>Precious</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Gumbo</t>
+          <t>Sibanda</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>87-668909X41</t>
+          <t>37-297734X64</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4414,16 +4414,16 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Physics</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>BSc Software Eng</t>
+          <t>BSc Physics</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -4431,33 +4431,33 @@
         </is>
       </c>
       <c r="K69" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Distinction</t>
+          <t>Credit</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>G214244</t>
+          <t>G181593</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Blessing</t>
+          <t>Rudo</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Banda</t>
+          <t>Ncube</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>13-489079X61</t>
+          <t>78-333903X93</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4467,21 +4467,21 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Faculty of Commerce</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Accounting</t>
+          <t>Civil Engineering</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>BAcc</t>
+          <t>BEng Civil</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -4489,57 +4489,57 @@
         </is>
       </c>
       <c r="K70" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>G189277</t>
+          <t>G214330</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Tinashe</t>
+          <t>Blessing</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Shumba</t>
+          <t>Moyo</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>80-443027X21</t>
+          <t>36-824165X76</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Faculty of Commerce</t>
+          <t>Faculty of Science</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Accounting</t>
+          <t>Physics</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>BCom Accounting</t>
+          <t>BSc Physics</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         </is>
       </c>
       <c r="K71" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -4558,22 +4558,22 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>G217222</t>
+          <t>G202516</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Tafadzwa</t>
+          <t>Tatenda</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Sibanda</t>
+          <t>Shumba</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>22-300327X36</t>
+          <t>52-966155X99</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4583,21 +4583,21 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Faculty of Commerce</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Business Management</t>
+          <t>Civil Engineering</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>BCom Business Mgt</t>
+          <t>Diploma Civil</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -4609,29 +4609,29 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Distinction</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>G204408</t>
+          <t>G198261</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Tinashe</t>
+          <t>Blessing</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Ncube</t>
+          <t>Banda</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>54-192215X42</t>
+          <t>23-697941X58</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4641,21 +4641,21 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Physics</t>
+          <t>Civil Engineering</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>BSc Applied Physics</t>
+          <t>Diploma Civil</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         </is>
       </c>
       <c r="K73" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -4674,42 +4674,42 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>G199400</t>
+          <t>G193687</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Precious</t>
+          <t>Nyasha</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Gumbo</t>
+          <t>Banda</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>95-610068X78</t>
+          <t>12-268889X94</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Faculty of Commerce</t>
+          <t>Faculty of Science</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Accounting</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>BAcc</t>
+          <t>BIT</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -4721,53 +4721,53 @@
         </is>
       </c>
       <c r="K74" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Credit</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>G192554</t>
+          <t>G191882</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Farai</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Ncube</t>
+          <t>Gumbo</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>16-674078X21</t>
+          <t>11-430288X19</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Faculty of Commerce</t>
+          <t>Faculty of Science</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Accounting</t>
+          <t>Physics</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>BAcc</t>
+          <t>BSc Applied Physics</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -4790,46 +4790,46 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>G199696</t>
+          <t>G205948</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Precious</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Mutasa</t>
+          <t>Sibanda</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>62-613653X30</t>
+          <t>37-725438X13</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Faculty of Engineering</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Electrical</t>
+          <t>Business Management</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>HND Electrical</t>
+          <t>BBA</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -4841,53 +4841,53 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>G213539</t>
+          <t>G207158</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Tendai</t>
+          <t>Precious</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Sibanda</t>
+          <t>Banda</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>68-460929X57</t>
+          <t>44-101411X25</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Physics</t>
+          <t>Business Management</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>BSc Physics</t>
+          <t>BCom Business Mgt</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -4899,29 +4899,29 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>G206680</t>
+          <t>G195441</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Tatenda</t>
+          <t>Tafadzwa</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Mutasa</t>
+          <t>Dube</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>21-210396X77</t>
+          <t>42-406070X69</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4931,21 +4931,21 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Faculty of Commerce</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Accounting</t>
+          <t>Civil Engineering</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>BCom Accounting</t>
+          <t>Diploma Civil</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -4953,33 +4953,33 @@
         </is>
       </c>
       <c r="K78" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>G216895</t>
+          <t>G206519</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Blessing</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Ndlovu</t>
+          <t>Moyo</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>37-334438X77</t>
+          <t>63-620572X30</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4989,21 +4989,21 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Business Management</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>BSCS</t>
+          <t>BBA</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         </is>
       </c>
       <c r="K79" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -5022,12 +5022,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>G191826</t>
+          <t>G196204</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Tinashe</t>
+          <t>Blessing</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5037,27 +5037,27 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>55-251566X97</t>
+          <t>64-261005X56</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Faculty of Engineering</t>
+          <t>Faculty of Science</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Electrical</t>
+          <t>Physics</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>HND Electrical</t>
+          <t>BSc Applied Physics</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -5073,49 +5073,49 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>G204962</t>
+          <t>G202392</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Tinashe</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Banda</t>
+          <t>Phiri</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>85-631693X80</t>
+          <t>25-382865X31</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Physics</t>
+          <t>Civil Engineering</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>BSc Applied Physics</t>
+          <t>Diploma Civil</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -5127,57 +5127,57 @@
         </is>
       </c>
       <c r="K81" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Distinction</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>G207094</t>
+          <t>G212005</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Blessing</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Sibanda</t>
+          <t>Dube</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>15-565866X45</t>
+          <t>87-575349X95</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Faculty of Engineering</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Civil Engineering</t>
+          <t>Business Management</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Diploma Civil</t>
+          <t>BCom Business Mgt</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -5189,14 +5189,14 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Credit</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>G191508</t>
+          <t>G206665</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5206,12 +5206,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Banda</t>
+          <t>Ndlovu</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>66-800919X51</t>
+          <t>77-570677X11</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -5221,21 +5221,21 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Faculty of Commerce</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Business Management</t>
+          <t>Civil Engineering</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>BCom Business Mgt</t>
+          <t>Diploma Civil</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         </is>
       </c>
       <c r="K83" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -5254,22 +5254,22 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>G207555</t>
+          <t>G185398</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Kudzai</t>
+          <t>Nyasha</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Banda</t>
+          <t>Gumbo</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>83-108132X80</t>
+          <t>82-537957X28</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -5279,21 +5279,21 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Electrical</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>BIT</t>
+          <t>HND Electrical</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -5301,18 +5301,18 @@
         </is>
       </c>
       <c r="K84" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Distinction</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>G209229</t>
+          <t>G181505</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5322,12 +5322,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Ncube</t>
+          <t>Mutasa</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>31-492182X35</t>
+          <t>54-499983X57</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -5342,16 +5342,16 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Electrical</t>
+          <t>Civil Engineering</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>HND Electrical</t>
+          <t>Diploma Civil</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -5359,33 +5359,33 @@
         </is>
       </c>
       <c r="K85" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>G182060</t>
+          <t>G205181</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Nyasha</t>
+          <t>Rudo</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Ndlovu</t>
+          <t>Dube</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>81-219814X56</t>
+          <t>64-334408X12</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -5409,7 +5409,7 @@
         </is>
       </c>
       <c r="I86" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -5417,33 +5417,33 @@
         </is>
       </c>
       <c r="K86" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Credit</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>G193579</t>
+          <t>G193857</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Rudo</t>
+          <t>Nyasha</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Mutasa</t>
+          <t>Dube</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>39-889922X42</t>
+          <t>76-190676X88</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -5453,17 +5453,17 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Faculty of Commerce</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Accounting</t>
+          <t>Electrical</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>BAcc</t>
+          <t>HND Electrical</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -5475,38 +5475,38 @@
         </is>
       </c>
       <c r="K87" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>G199272</t>
+          <t>G201629</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Tendai</t>
+          <t>Farai</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Sibanda</t>
+          <t>Ndlovu</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>94-209294X73</t>
+          <t>86-472176X94</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -5516,16 +5516,16 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Physics</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>BSc Physics</t>
+          <t>BSCS</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         </is>
       </c>
       <c r="K88" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -5544,22 +5544,22 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>G206394</t>
+          <t>G184484</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Farai</t>
+          <t>Kudzai</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Dube</t>
+          <t>Sibanda</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>18-939270X55</t>
+          <t>44-172536X32</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5579,11 +5579,11 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>BCom Business Mgt</t>
+          <t>BBA</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         </is>
       </c>
       <c r="K89" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -5602,46 +5602,46 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>G181848</t>
+          <t>G193338</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Rudo</t>
+          <t>Kudzai</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Sibanda</t>
+          <t>Dube</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>65-979732X60</t>
+          <t>87-901862X81</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Physics</t>
+          <t>Business Management</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>BSc Physics</t>
+          <t>BCom Business Mgt</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -5649,38 +5649,38 @@
         </is>
       </c>
       <c r="K90" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Distinction</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>G218655</t>
+          <t>G214190</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Tendai</t>
+          <t>Tatenda</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Ndlovu</t>
+          <t>Mutasa</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>26-888445X28</t>
+          <t>44-829355X81</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5711,34 +5711,34 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Distinction</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>G192864</t>
+          <t>G208021</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Blessing</t>
+          <t>Precious</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Ncube</t>
+          <t>Shumba</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>55-997855X93</t>
+          <t>60-835140X29</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5748,16 +5748,16 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Physics</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>BSc Applied Physics</t>
+          <t>BSCS</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -5769,29 +5769,29 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>G219397</t>
+          <t>G195068</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Farai</t>
+          <t>Tendai</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Gumbo</t>
+          <t>Moyo</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>50-887483X67</t>
+          <t>29-442815X29</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5801,21 +5801,21 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Business Management</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>BSc Software Eng</t>
+          <t>BBA</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         </is>
       </c>
       <c r="K93" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -5834,46 +5834,46 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>G199482</t>
+          <t>G182395</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Kudzai</t>
+          <t>Nyasha</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Mutasa</t>
+          <t>Moyo</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>29-780118X11</t>
+          <t>30-884469X27</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Faculty of Engineering</t>
+          <t>Faculty of Science</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Civil Engineering</t>
+          <t>Physics</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Diploma Civil</t>
+          <t>BSc Applied Physics</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
@@ -5881,33 +5881,33 @@
         </is>
       </c>
       <c r="K94" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>G207097</t>
+          <t>G208019</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Tafadzwa</t>
+          <t>Tendai</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Banda</t>
+          <t>Mutasa</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>11-285173X65</t>
+          <t>16-728512X95</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5917,17 +5917,17 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Accounting</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>BSc Software Eng</t>
+          <t>BCom Accounting</t>
         </is>
       </c>
       <c r="I95" t="n">
@@ -5943,19 +5943,19 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Credit</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>G203701</t>
+          <t>G197323</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Tinashe</t>
+          <t>Tafadzwa</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -5965,31 +5965,31 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>50-338018X19</t>
+          <t>95-964058X11</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Faculty of Engineering</t>
+          <t>Faculty of Commerce</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Civil Engineering</t>
+          <t>Accounting</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Diploma Civil</t>
+          <t>BAcc</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         </is>
       </c>
       <c r="K96" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -6008,22 +6008,22 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>G216894</t>
+          <t>G204859</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Tafadzwa</t>
+          <t>Rudo</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Phiri</t>
+          <t>Sibanda</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>18-259250X54</t>
+          <t>67-433772X21</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -6043,11 +6043,11 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>BCom Business Mgt</t>
+          <t>BBA</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
@@ -6059,29 +6059,29 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Distinction</t>
+          <t>Credit</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>G194605</t>
+          <t>G201112</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Farai</t>
+          <t>Tinashe</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Phiri</t>
+          <t>Dube</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>61-755586X42</t>
+          <t>40-583792X28</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -6091,21 +6091,21 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Faculty of Science</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Civil Engineering</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>BIT</t>
+          <t>BEng Civil</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         </is>
       </c>
       <c r="K98" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -6124,22 +6124,22 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>G197590</t>
+          <t>G202719</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Kudzai</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Ncube</t>
+          <t>Dube</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>70-837845X38</t>
+          <t>52-407056X12</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -6149,21 +6149,21 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Faculty of Commerce</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Accounting</t>
+          <t>Electrical</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>BCom Accounting</t>
+          <t>HND Electrical</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>G183350</t>
+          <t>G209868</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -6192,12 +6192,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Shumba</t>
+          <t>Moyo</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>83-328455X28</t>
+          <t>94-128106X75</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -6212,16 +6212,16 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Civil Engineering</t>
+          <t>Electrical</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Diploma Civil</t>
+          <t>HND Electrical</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
@@ -6229,57 +6229,57 @@
         </is>
       </c>
       <c r="K100" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Distinction</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>G198884</t>
+          <t>G186506</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Tendai</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Sibanda</t>
+          <t>Dube</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>53-381149X94</t>
+          <t>27-505882X18</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Faculty of Commerce</t>
+          <t>Faculty of Engineering</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Business Management</t>
+          <t>Civil Engineering</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>BCom Business Mgt</t>
+          <t>BEng Civil</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -6287,11 +6287,11 @@
         </is>
       </c>
       <c r="K101" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Credit</t>
         </is>
       </c>
     </row>
